--- a/_Out/NFDataCfg/Excel_Ini/Team.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Team.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -151,13 +151,16 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -375,7 +378,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -740,21 +743,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="6" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -765,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -776,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="3" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -787,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="3" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -798,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="3" customFormat="1">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -809,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="3" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -820,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="7" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -831,38 +834,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="7" customFormat="1">
       <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1">
+      <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="8" customFormat="1">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -871,28 +885,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="17" width="16.453125" customWidth="1"/>
+    <col min="16" max="17" width="16.46484375" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.453125" customWidth="1"/>
+    <col min="19" max="19" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -900,7 +914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -908,7 +922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -916,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -924,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -932,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -940,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -948,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -956,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -988,7 +1002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1092,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1174,14 +1188,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
